--- a/TitanSiege/Data/Excel/道具配置表.xlsx
+++ b/TitanSiege/Data/Excel/道具配置表.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\project\Dark\DarkGod\Data\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9144"/>
+    <workbookView windowWidth="30720" windowHeight="13380"/>
   </bookViews>
   <sheets>
     <sheet name="道具配置表" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
   <si>
     <t>ID</t>
   </si>
@@ -39,6 +34,9 @@
     <t>物品等级</t>
   </si>
   <si>
+    <t>物品品质</t>
+  </si>
+  <si>
     <t>贩卖价格</t>
   </si>
   <si>
@@ -48,9 +46,6 @@
     <t>冷却</t>
   </si>
   <si>
-    <t>天赋</t>
-  </si>
-  <si>
     <t>效果1</t>
   </si>
   <si>
@@ -108,39 +103,393 @@
     <t>0</t>
   </si>
   <si>
-    <t>hp,100</t>
+    <t>100</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>maxhp|50,gongji|50,fangyu|10,baoji|0.01</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>lliang|5,tizhi|5,minjie|5</t>
+  </si>
+  <si>
+    <t>gongji|50,fangyu|10</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -148,104 +497,535 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFill="0" applyBorder="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <dxfs count="17">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <horizontal style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="totalRow" dxfId="4"/>
+      <tableStyleElement type="firstColumn" dxfId="3"/>
+      <tableStyleElement type="lastColumn" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+    </tableStyle>
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
+      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="totalRow" dxfId="15"/>
+      <tableStyleElement type="firstRowStripe" dxfId="14"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
+      <tableStyleElement type="pageFieldValues" dxfId="7"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="808080"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -283,12 +1063,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -318,12 +1098,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -492,33 +1272,36 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="2" width="9.109375" customWidth="1"/>
-    <col min="3" max="3" width="11.77734375" customWidth="1"/>
-    <col min="4" max="5" width="9.109375" customWidth="1"/>
-    <col min="6" max="8" width="9.5546875" customWidth="1"/>
-    <col min="9" max="22" width="9.109375" customWidth="1"/>
+    <col min="1" max="2" width="9.13888888888889" customWidth="1"/>
+    <col min="3" max="3" width="11.7592592592593" customWidth="1"/>
+    <col min="4" max="5" width="9.13888888888889" customWidth="1"/>
+    <col min="6" max="9" width="9.51851851851852" customWidth="1"/>
+    <col min="10" max="13" width="9.13888888888889" customWidth="1"/>
+    <col min="14" max="14" width="35.9722222222222" customWidth="1"/>
+    <col min="15" max="15" width="9.13888888888889" customWidth="1"/>
+    <col min="16" max="16" width="20.5185185185185" customWidth="1"/>
+    <col min="17" max="17" width="9.13888888888889" customWidth="1"/>
+    <col min="18" max="18" width="17.7037037037037" customWidth="1"/>
+    <col min="19" max="19" width="9.13888888888889" customWidth="1"/>
+    <col min="20" max="20" width="20.5185185185185" customWidth="1"/>
+    <col min="21" max="22" width="9.13888888888889" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -586,7 +1369,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -606,57 +1389,56 @@
         <v>22</v>
       </c>
       <c r="G2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" t="s">
         <v>26</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>27</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="1">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
+      <c r="K2" t="s">
+        <v>22</v>
       </c>
       <c r="L2" t="s">
         <v>29</v>
       </c>
       <c r="M2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S2" t="s">
+        <v>35</v>
+      </c>
+      <c r="T2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U2" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="1">
-        <v>0</v>
-      </c>
-      <c r="O2" t="s">
-        <v>28</v>
-      </c>
-      <c r="P2" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>0</v>
-      </c>
-      <c r="R2" s="1">
-        <v>0</v>
-      </c>
-      <c r="S2" s="1">
-        <v>0</v>
-      </c>
-      <c r="T2" s="1">
-        <v>0</v>
-      </c>
-      <c r="U2" s="1">
-        <v>0</v>
-      </c>
-      <c r="V2" s="1">
-        <v>0</v>
+      <c r="V2" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/TitanSiege/Data/Excel/道具配置表.xlsx
+++ b/TitanSiege/Data/Excel/道具配置表.xlsx
@@ -232,7 +232,7 @@
     <t>普通不能再普通的皮靴，用布料和贴片制作，工匠升级后，除了防御，少量增加生命和属性</t>
   </si>
   <si>
-    <t>shangbi|0.01,fangyu|10</t>
+    <t>shanbi|0.01,fangyu|10</t>
   </si>
   <si>
     <t>minjie|5,tizhi|5</t>
@@ -247,7 +247,7 @@
     <t>普通不能再普通的皮靴，用布料和贴片制作，工匠升级后，除了防御，中量增加生命和属性</t>
   </si>
   <si>
-    <t>shangbi|0.015,fangyu|20</t>
+    <t>shanbi|0.015,fangyu|20</t>
   </si>
   <si>
     <t>minjie|7,tizhi|7</t>
@@ -262,7 +262,7 @@
     <t>普通不能再普通的皮靴，用布料和贴片制作，工匠升级后，除了防御，大量增加生命和属性</t>
   </si>
   <si>
-    <t>shangbi|0.02,fangyu|23</t>
+    <t>shanbi|0.02,fangyu|23</t>
   </si>
   <si>
     <t>minjie|9,tizhi|9,meili|1,xingyun|1</t>
@@ -1742,8 +1742,8 @@
   <sheetPr/>
   <dimension ref="A1:V48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A48"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>

--- a/TitanSiege/Data/Excel/道具配置表.xlsx
+++ b/TitanSiege/Data/Excel/道具配置表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="183">
   <si>
     <t>ID</t>
   </si>
@@ -100,7 +100,7 @@
     <t>fangyu|10</t>
   </si>
   <si>
-    <t>lliang|1,tizhi|1</t>
+    <t>liliang|1,tizhi|1</t>
   </si>
   <si>
     <t/>
@@ -118,7 +118,7 @@
     <t>liliang|3,tizhi|3</t>
   </si>
   <si>
-    <t>lliang|2,tizhi|2</t>
+    <t>liliang|2,tizhi|2</t>
   </si>
   <si>
     <t>卓越轻盔甲</t>
@@ -133,9 +133,6 @@
     <t>liliang|5,tizhi|5</t>
   </si>
   <si>
-    <t>lliang|3,tizhi|3</t>
-  </si>
-  <si>
     <t>传奇轻盔甲</t>
   </si>
   <si>
@@ -148,7 +145,7 @@
     <t>liliang|7,tizhi|7</t>
   </si>
   <si>
-    <t>lliang|4,tizhi|4</t>
+    <t>liliang|4,tizhi|4</t>
   </si>
   <si>
     <t>史诗轻盔甲</t>
@@ -163,9 +160,6 @@
     <t>liliang|9,tizhi|9,meili|1,xingyun|1</t>
   </si>
   <si>
-    <t>lliang|5,tizhi|5</t>
-  </si>
-  <si>
     <t>冒险者胸甲</t>
   </si>
   <si>
@@ -175,31 +169,28 @@
     <t>UIRes/item/yifu3.png</t>
   </si>
   <si>
-    <t>lliang|6,tizhi|6</t>
+    <t>liliang|6,tizhi|6</t>
   </si>
   <si>
     <t>精良冒险者胸甲</t>
   </si>
   <si>
-    <t>lliang|7,tizhi|7</t>
-  </si>
-  <si>
     <t>卓越冒险者胸甲</t>
   </si>
   <si>
-    <t>lliang|8,tizhi|8</t>
+    <t>liliang|8,tizhi|8</t>
   </si>
   <si>
     <t>传奇冒险者胸甲</t>
   </si>
   <si>
-    <t>lliang|9,tizhi|9</t>
+    <t>liliang|9,tizhi|9</t>
   </si>
   <si>
     <t>史诗冒险者胸甲</t>
   </si>
   <si>
-    <t>lliang|10,tizhi|10</t>
+    <t>liliang|10,tizhi|10</t>
   </si>
   <si>
     <t>轻皮靴</t>
@@ -211,7 +202,7 @@
     <t>UIRes/item/xiezi2.png</t>
   </si>
   <si>
-    <t>lliang|1,minjie|2</t>
+    <t>liliang|1,minjie|2</t>
   </si>
   <si>
     <t>精良轻皮靴</t>
@@ -223,7 +214,7 @@
     <t>minjie|3,tizhi|3</t>
   </si>
   <si>
-    <t>lliang|2,minjie|2</t>
+    <t>liliang|2,minjie|2</t>
   </si>
   <si>
     <t>卓越轻皮靴</t>
@@ -238,7 +229,7 @@
     <t>minjie|5,tizhi|5</t>
   </si>
   <si>
-    <t>lliang|2,minjie|3</t>
+    <t>liliang|2,minjie|3</t>
   </si>
   <si>
     <t>传奇轻皮靴</t>
@@ -253,7 +244,7 @@
     <t>minjie|7,tizhi|7</t>
   </si>
   <si>
-    <t>lliang|3,minjie|3</t>
+    <t>liliang|3,minjie|3</t>
   </si>
   <si>
     <t>史诗轻皮靴</t>
@@ -268,7 +259,7 @@
     <t>minjie|9,tizhi|9,meili|1,xingyun|1</t>
   </si>
   <si>
-    <t>lliang|4,minjie|3</t>
+    <t>liliang|4,minjie|3</t>
   </si>
   <si>
     <t>黑铁巨剑</t>
@@ -293,9 +284,6 @@
   </si>
   <si>
     <t>baoji|0.01,gongji|15</t>
-  </si>
-  <si>
-    <t>liliang|3,minjie|3</t>
   </si>
   <si>
     <t>minjie|2,tizhi|2</t>
@@ -1742,8 +1730,8 @@
   <sheetPr/>
   <dimension ref="A1:V48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="R36" sqref="R36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1995,7 +1983,7 @@
         <v>2</v>
       </c>
       <c r="R4" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="S4">
         <v>3</v>
@@ -2012,10 +2000,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="D5" t="s">
         <v>24</v>
@@ -2042,19 +2030,19 @@
         <v>3</v>
       </c>
       <c r="L5" t="s">
+        <v>41</v>
+      </c>
+      <c r="M5">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
         <v>42</v>
       </c>
-      <c r="M5">
-        <v>4</v>
-      </c>
-      <c r="N5" t="s">
+      <c r="Q5">
+        <v>2</v>
+      </c>
+      <c r="R5" t="s">
         <v>43</v>
-      </c>
-      <c r="Q5">
-        <v>2</v>
-      </c>
-      <c r="R5" t="s">
-        <v>44</v>
       </c>
       <c r="S5">
         <v>3</v>
@@ -2071,10 +2059,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
@@ -2101,19 +2089,19 @@
         <v>3</v>
       </c>
       <c r="L6" t="s">
+        <v>46</v>
+      </c>
+      <c r="M6">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
         <v>47</v>
       </c>
-      <c r="M6">
-        <v>4</v>
-      </c>
-      <c r="N6" t="s">
-        <v>48</v>
-      </c>
       <c r="Q6">
         <v>2</v>
       </c>
       <c r="R6" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="S6">
         <v>3</v>
@@ -2127,13 +2115,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" t="s">
         <v>50</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" t="s">
-        <v>52</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -2169,7 +2157,7 @@
         <v>2</v>
       </c>
       <c r="R7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="S7">
         <v>3</v>
@@ -2186,13 +2174,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -2228,7 +2216,7 @@
         <v>2</v>
       </c>
       <c r="R8" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="S8">
         <v>3</v>
@@ -2245,13 +2233,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -2287,7 +2275,7 @@
         <v>2</v>
       </c>
       <c r="R9" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="S9">
         <v>3</v>
@@ -2304,13 +2292,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -2334,19 +2322,19 @@
         <v>3</v>
       </c>
       <c r="L10" t="s">
+        <v>41</v>
+      </c>
+      <c r="M10">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
         <v>42</v>
       </c>
-      <c r="M10">
-        <v>4</v>
-      </c>
-      <c r="N10" t="s">
-        <v>43</v>
-      </c>
       <c r="Q10">
         <v>2</v>
       </c>
       <c r="R10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="S10">
         <v>3</v>
@@ -2363,13 +2351,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -2393,19 +2381,19 @@
         <v>3</v>
       </c>
       <c r="L11" t="s">
+        <v>46</v>
+      </c>
+      <c r="M11">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
         <v>47</v>
       </c>
-      <c r="M11">
-        <v>4</v>
-      </c>
-      <c r="N11" t="s">
-        <v>48</v>
-      </c>
       <c r="Q11">
         <v>2</v>
       </c>
       <c r="R11" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="S11">
         <v>3</v>
@@ -2419,13 +2407,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D12" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E12">
         <v>7</v>
@@ -2455,7 +2443,7 @@
         <v>2</v>
       </c>
       <c r="R12" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="S12">
         <v>3</v>
@@ -2469,13 +2457,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E13">
         <v>7</v>
@@ -2505,13 +2493,13 @@
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="Q13">
         <v>2</v>
       </c>
       <c r="R13" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="S13">
         <v>3</v>
@@ -2525,13 +2513,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D14" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E14">
         <v>7</v>
@@ -2555,19 +2543,19 @@
         <v>3</v>
       </c>
       <c r="L14" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="M14">
         <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="Q14">
         <v>2</v>
       </c>
       <c r="R14" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="S14">
         <v>3</v>
@@ -2581,13 +2569,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D15" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E15">
         <v>7</v>
@@ -2611,19 +2599,19 @@
         <v>3</v>
       </c>
       <c r="L15" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="M15">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="Q15">
         <v>2</v>
       </c>
       <c r="R15" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="S15">
         <v>3</v>
@@ -2637,13 +2625,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D16" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E16">
         <v>7</v>
@@ -2667,19 +2655,19 @@
         <v>3</v>
       </c>
       <c r="L16" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="M16">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="Q16">
         <v>2</v>
       </c>
       <c r="R16" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="S16">
         <v>3</v>
@@ -2693,13 +2681,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D17" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E17">
         <v>4</v>
@@ -2723,13 +2711,13 @@
         <v>26</v>
       </c>
       <c r="L17" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="Q17">
         <v>2</v>
       </c>
       <c r="R17" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="S17">
         <v>3</v>
@@ -2746,13 +2734,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D18" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E18">
         <v>4</v>
@@ -2776,19 +2764,19 @@
         <v>3</v>
       </c>
       <c r="L18" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="M18">
         <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="Q18">
         <v>2</v>
       </c>
       <c r="R18" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="S18">
         <v>3</v>
@@ -2805,13 +2793,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D19" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E19">
         <v>4</v>
@@ -2835,19 +2823,19 @@
         <v>3</v>
       </c>
       <c r="L19" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="M19">
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="Q19">
         <v>2</v>
       </c>
       <c r="R19" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="S19">
         <v>3</v>
@@ -2864,13 +2852,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D20" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E20">
         <v>4</v>
@@ -2894,19 +2882,19 @@
         <v>3</v>
       </c>
       <c r="L20" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="M20">
         <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="Q20">
         <v>2</v>
       </c>
       <c r="R20" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="S20">
         <v>3</v>
@@ -2923,13 +2911,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D21" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E21">
         <v>4</v>
@@ -2953,19 +2941,19 @@
         <v>3</v>
       </c>
       <c r="L21" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="M21">
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="Q21">
         <v>2</v>
       </c>
       <c r="R21" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="S21">
         <v>3</v>
@@ -2979,13 +2967,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D22" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E22">
         <v>6</v>
@@ -3009,13 +2997,13 @@
         <v>26</v>
       </c>
       <c r="L22" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="Q22">
         <v>2</v>
       </c>
       <c r="R22" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="S22">
         <v>3</v>
@@ -3029,13 +3017,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D23" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E23">
         <v>6</v>
@@ -3059,19 +3047,19 @@
         <v>3</v>
       </c>
       <c r="L23" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="M23">
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="Q23">
         <v>2</v>
       </c>
       <c r="R23" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="S23">
         <v>3</v>
@@ -3085,13 +3073,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D24" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E24">
         <v>6</v>
@@ -3115,19 +3103,19 @@
         <v>3</v>
       </c>
       <c r="L24" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="M24">
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="Q24">
         <v>2</v>
       </c>
       <c r="R24" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="S24">
         <v>3</v>
@@ -3141,13 +3129,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D25" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E25">
         <v>6</v>
@@ -3171,19 +3159,19 @@
         <v>3</v>
       </c>
       <c r="L25" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="M25">
         <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="Q25">
         <v>2</v>
       </c>
       <c r="R25" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="S25">
         <v>3</v>
@@ -3197,13 +3185,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D26" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E26">
         <v>6</v>
@@ -3227,19 +3215,19 @@
         <v>3</v>
       </c>
       <c r="L26" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="M26">
         <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="Q26">
         <v>2</v>
       </c>
       <c r="R26" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="S26">
         <v>3</v>
@@ -3253,13 +3241,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D27" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E27">
         <v>5</v>
@@ -3286,13 +3274,13 @@
         <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="Q27">
         <v>2</v>
       </c>
       <c r="R27" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="S27">
         <v>3</v>
@@ -3306,13 +3294,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D28" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E28">
         <v>5</v>
@@ -3336,19 +3324,19 @@
         <v>3</v>
       </c>
       <c r="L28" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="M28">
         <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="Q28">
         <v>2</v>
       </c>
       <c r="R28" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="S28">
         <v>3</v>
@@ -3362,13 +3350,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D29" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E29">
         <v>5</v>
@@ -3392,19 +3380,19 @@
         <v>3</v>
       </c>
       <c r="L29" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="M29">
         <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="Q29">
         <v>2</v>
       </c>
       <c r="R29" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="S29">
         <v>3</v>
@@ -3418,13 +3406,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D30" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E30">
         <v>5</v>
@@ -3448,19 +3436,19 @@
         <v>3</v>
       </c>
       <c r="L30" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="M30">
         <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="Q30">
         <v>2</v>
       </c>
       <c r="R30" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="S30">
         <v>3</v>
@@ -3474,13 +3462,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D31" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E31">
         <v>5</v>
@@ -3504,19 +3492,19 @@
         <v>3</v>
       </c>
       <c r="L31" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="M31">
         <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="Q31">
         <v>2</v>
       </c>
       <c r="R31" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="S31">
         <v>3</v>
@@ -3530,13 +3518,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D32" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E32">
         <v>3</v>
@@ -3583,13 +3571,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D33" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E33">
         <v>3</v>
@@ -3642,13 +3630,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D34" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E34">
         <v>3</v>
@@ -3684,7 +3672,7 @@
         <v>2</v>
       </c>
       <c r="R34" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="S34">
         <v>3</v>
@@ -3701,13 +3689,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D35" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E35">
         <v>3</v>
@@ -3731,19 +3719,19 @@
         <v>3</v>
       </c>
       <c r="L35" t="s">
+        <v>41</v>
+      </c>
+      <c r="M35">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
         <v>42</v>
       </c>
-      <c r="M35">
-        <v>4</v>
-      </c>
-      <c r="N35" t="s">
+      <c r="Q35">
+        <v>2</v>
+      </c>
+      <c r="R35" t="s">
         <v>43</v>
-      </c>
-      <c r="Q35">
-        <v>2</v>
-      </c>
-      <c r="R35" t="s">
-        <v>44</v>
       </c>
       <c r="S35">
         <v>3</v>
@@ -3760,13 +3748,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D36" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E36">
         <v>3</v>
@@ -3790,19 +3778,19 @@
         <v>3</v>
       </c>
       <c r="L36" t="s">
+        <v>46</v>
+      </c>
+      <c r="M36">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
         <v>47</v>
       </c>
-      <c r="M36">
-        <v>4</v>
-      </c>
-      <c r="N36" t="s">
-        <v>48</v>
-      </c>
       <c r="Q36">
         <v>2</v>
       </c>
       <c r="R36" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="S36">
         <v>3</v>
@@ -3816,13 +3804,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D37" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -3854,13 +3842,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D38" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -3892,13 +3880,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D39" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -3930,13 +3918,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D40" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -3968,13 +3956,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D41" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -4006,13 +3994,13 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D42" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -4044,13 +4032,13 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D43" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -4082,13 +4070,13 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D44" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -4120,13 +4108,13 @@
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D45" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -4158,13 +4146,13 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D46" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E46">
         <v>10</v>
@@ -4196,13 +4184,13 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D47" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E47">
         <v>10</v>
@@ -4234,13 +4222,13 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D48" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E48">
         <v>10</v>

--- a/TitanSiege/Data/Excel/道具配置表.xlsx
+++ b/TitanSiege/Data/Excel/道具配置表.xlsx
@@ -1730,8 +1730,8 @@
   <sheetPr/>
   <dimension ref="A1:V48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="R36" sqref="R36"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="L40" sqref="L40:L43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
